--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dynacons Systems and Solutions Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dynacons Systems and Solutions Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -657,10 +657,10 @@
         <v>1.13</v>
       </c>
       <c r="I2">
-        <v>0.5828571428571429</v>
+        <v>0.58</v>
       </c>
       <c r="J2">
-        <v>0.9935714285714285</v>
+        <v>0.99</v>
       </c>
       <c r="K2">
         <v>1.2</v>
@@ -705,7 +705,7 @@
         <v>2.92</v>
       </c>
       <c r="Y2">
-        <v>5.873</v>
+        <v>5.87</v>
       </c>
       <c r="Z2">
         <v>13.55</v>
@@ -714,7 +714,7 @@
         <v>39.62</v>
       </c>
       <c r="AB2">
-        <v>17.70055555555556</v>
+        <v>17.7</v>
       </c>
       <c r="AC2">
         <v>0.02</v>
@@ -755,22 +755,22 @@
         <v>1.23</v>
       </c>
       <c r="I3">
-        <v>0.5828571428571429</v>
+        <v>0.58</v>
       </c>
       <c r="J3">
-        <v>0.9935714285714285</v>
+        <v>0.99</v>
       </c>
       <c r="K3">
         <v>3.82</v>
       </c>
       <c r="L3">
-        <v>19.66473684210526</v>
+        <v>19.66</v>
       </c>
       <c r="M3">
         <v>1.29</v>
       </c>
       <c r="N3">
-        <v>3.638823529411765</v>
+        <v>3.64</v>
       </c>
       <c r="O3">
         <v>1.57</v>
@@ -803,7 +803,7 @@
         <v>8.34</v>
       </c>
       <c r="Y3">
-        <v>5.873</v>
+        <v>5.87</v>
       </c>
       <c r="Z3">
         <v>20.98</v>
@@ -812,10 +812,10 @@
         <v>39.13</v>
       </c>
       <c r="AB3">
-        <v>17.70055555555556</v>
+        <v>17.7</v>
       </c>
       <c r="AC3">
-        <v>3.226315789473684</v>
+        <v>3.23</v>
       </c>
       <c r="AD3">
         <v>14.81</v>
@@ -853,10 +853,10 @@
         <v>1.18</v>
       </c>
       <c r="I4">
-        <v>0.5828571428571429</v>
+        <v>0.58</v>
       </c>
       <c r="J4">
-        <v>0.9935714285714285</v>
+        <v>0.99</v>
       </c>
       <c r="K4">
         <v>3.15</v>
@@ -868,7 +868,7 @@
         <v>0.99</v>
       </c>
       <c r="N4">
-        <v>3.638823529411765</v>
+        <v>3.64</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -901,7 +901,7 @@
         <v>3.5</v>
       </c>
       <c r="Y4">
-        <v>5.873</v>
+        <v>5.87</v>
       </c>
       <c r="Z4">
         <v>15.58</v>
@@ -951,10 +951,10 @@
         <v>1.27</v>
       </c>
       <c r="I5">
-        <v>0.5828571428571429</v>
+        <v>0.58</v>
       </c>
       <c r="J5">
-        <v>0.9935714285714285</v>
+        <v>0.99</v>
       </c>
       <c r="K5">
         <v>2.21</v>
@@ -966,7 +966,7 @@
         <v>1.25</v>
       </c>
       <c r="N5">
-        <v>3.638823529411765</v>
+        <v>3.64</v>
       </c>
       <c r="O5">
         <v>4.66</v>
@@ -999,7 +999,7 @@
         <v>2.71</v>
       </c>
       <c r="Y5">
-        <v>5.873</v>
+        <v>5.87</v>
       </c>
       <c r="Z5">
         <v>15.4</v>
@@ -1049,10 +1049,10 @@
         <v>1.35</v>
       </c>
       <c r="I6">
-        <v>0.5828571428571429</v>
+        <v>0.58</v>
       </c>
       <c r="J6">
-        <v>0.9935714285714285</v>
+        <v>0.99</v>
       </c>
       <c r="K6">
         <v>3.47</v>
@@ -1097,7 +1097,7 @@
         <v>2.13</v>
       </c>
       <c r="Y6">
-        <v>5.873</v>
+        <v>5.87</v>
       </c>
       <c r="Z6">
         <v>20.26</v>
@@ -1147,10 +1147,10 @@
         <v>1.43</v>
       </c>
       <c r="I7">
-        <v>0.5828571428571429</v>
+        <v>0.58</v>
       </c>
       <c r="J7">
-        <v>0.9935714285714285</v>
+        <v>0.99</v>
       </c>
       <c r="K7">
         <v>4.09</v>
@@ -1195,7 +1195,7 @@
         <v>0.44</v>
       </c>
       <c r="Y7">
-        <v>5.873</v>
+        <v>5.87</v>
       </c>
       <c r="Z7">
         <v>22.79</v>
@@ -1213,7 +1213,7 @@
         <v>14.81</v>
       </c>
       <c r="AE7">
-        <v>0.2473333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="AF7">
         <v>6.51</v>
@@ -1391,7 +1391,7 @@
         <v>0.09</v>
       </c>
       <c r="Y9">
-        <v>5.873</v>
+        <v>5.87</v>
       </c>
       <c r="Z9">
         <v>14.13</v>
@@ -1587,7 +1587,7 @@
         <v>0.1</v>
       </c>
       <c r="Y11">
-        <v>5.873</v>
+        <v>5.87</v>
       </c>
       <c r="Z11">
         <v>24.43</v>
@@ -1685,7 +1685,7 @@
         <v>0.18</v>
       </c>
       <c r="Y12">
-        <v>5.873</v>
+        <v>5.87</v>
       </c>
       <c r="Z12">
         <v>29.24</v>
@@ -1783,7 +1783,7 @@
         <v>0.13</v>
       </c>
       <c r="Y13">
-        <v>5.873</v>
+        <v>5.87</v>
       </c>
       <c r="Z13">
         <v>43.36</v>
@@ -1997,7 +1997,7 @@
         <v>2.95</v>
       </c>
       <c r="AE15">
-        <v>0.2473333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="AF15">
         <v>0.01</v>
@@ -2095,7 +2095,7 @@
         <v>2.95</v>
       </c>
       <c r="AE16">
-        <v>0.2473333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="AF16">
         <v>0.01</v>
@@ -2124,7 +2124,7 @@
         <v>1.78</v>
       </c>
       <c r="H17">
-        <v>0.8726666666666667</v>
+        <v>0.87</v>
       </c>
       <c r="I17">
         <v>0.09</v>
@@ -2193,10 +2193,10 @@
         <v>2.95</v>
       </c>
       <c r="AE17">
-        <v>0.2473333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="AF17">
-        <v>2.700625</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2222,7 +2222,7 @@
         <v>6.06</v>
       </c>
       <c r="H18">
-        <v>0.8726666666666667</v>
+        <v>0.87</v>
       </c>
       <c r="I18">
         <v>0.04</v>
@@ -2291,7 +2291,7 @@
         <v>2.95</v>
       </c>
       <c r="AE18">
-        <v>0.2473333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="AF18">
         <v>0.05</v>
@@ -2320,7 +2320,7 @@
         <v>12.01</v>
       </c>
       <c r="H19">
-        <v>0.8726666666666667</v>
+        <v>0.87</v>
       </c>
       <c r="I19">
         <v>1.78</v>
@@ -2392,7 +2392,7 @@
         <v>0.51</v>
       </c>
       <c r="AF19">
-        <v>2.700625</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -2418,7 +2418,7 @@
         <v>15.96</v>
       </c>
       <c r="H20">
-        <v>0.8726666666666667</v>
+        <v>0.87</v>
       </c>
       <c r="I20">
         <v>2.71</v>
@@ -2490,7 +2490,7 @@
         <v>0.5</v>
       </c>
       <c r="AF20">
-        <v>2.700625</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -2516,7 +2516,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="H21">
-        <v>0.8726666666666667</v>
+        <v>0.87</v>
       </c>
       <c r="I21">
         <v>2.02</v>
@@ -2588,7 +2588,7 @@
         <v>0.71</v>
       </c>
       <c r="AF21">
-        <v>2.700625</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
